--- a/IntanReport_160512_Baihan.xlsx
+++ b/IntanReport_160512_Baihan.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="77">
   <si>
     <t xml:space="preserve">Report date: </t>
   </si>
@@ -239,13 +239,25 @@
     <t>alb-cal-050516-s8</t>
   </si>
   <si>
-    <t>L/R</t>
-  </si>
-  <si>
     <t>L On - Off</t>
   </si>
   <si>
     <t>R On - Off</t>
+  </si>
+  <si>
+    <t>L On/Off</t>
+  </si>
+  <si>
+    <t>R On/Off</t>
+  </si>
+  <si>
+    <t>L/R On - Off</t>
+  </si>
+  <si>
+    <t>L/R On/Off</t>
+  </si>
+  <si>
+    <t>Average</t>
   </si>
 </sst>
 </file>
@@ -633,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AY163"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection sqref="A1:L68"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -643,14 +655,16 @@
     <col min="2" max="2" width="27.83203125" customWidth="1"/>
     <col min="10" max="10" width="13.83203125" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
+    <col min="12" max="12" width="15.1640625" customWidth="1"/>
+    <col min="15" max="15" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="37" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="37" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -658,7 +672,7 @@
         <v>42500</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
@@ -684,16 +698,25 @@
         <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
@@ -727,8 +750,20 @@
         <f t="shared" ref="L6:L37" si="2">J6/K6</f>
         <v>0.53333333333333333</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M6">
+        <f>F6/G6</f>
+        <v>3</v>
+      </c>
+      <c r="N6">
+        <f>H6/I6</f>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="O6">
+        <f>M6/N6</f>
+        <v>1.125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
@@ -762,8 +797,20 @@
         <f t="shared" si="2"/>
         <v>1.103015946383175</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M7">
+        <f t="shared" ref="M7:M68" si="3">F7/G7</f>
+        <v>1.9767465657056611</v>
+      </c>
+      <c r="N7">
+        <f t="shared" ref="N7:N68" si="4">H7/I7</f>
+        <v>1.7258240375744363</v>
+      </c>
+      <c r="O7">
+        <f t="shared" ref="O7:O68" si="5">M7/N7</f>
+        <v>1.1453928805417988</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
         <v>12</v>
       </c>
@@ -797,8 +844,20 @@
         <f t="shared" si="2"/>
         <v>0.20000000000000004</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M8">
+        <f t="shared" si="3"/>
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="4"/>
+        <v>1.7894653740486941</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="5"/>
+        <v>0.65196381197757669</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>13</v>
       </c>
@@ -832,8 +891,20 @@
         <f t="shared" si="2"/>
         <v>0.57449795519746105</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M9">
+        <f t="shared" si="3"/>
+        <v>1.2335831637464636</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="4"/>
+        <v>1.4935976620168117</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="5"/>
+        <v>0.82591396272055673</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>14</v>
       </c>
@@ -867,8 +938,20 @@
         <f t="shared" si="2"/>
         <v>0.97515625350030222</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M10">
+        <f t="shared" si="3"/>
+        <v>2.4231071008238523</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="4"/>
+        <v>1.5804283095166891</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="5"/>
+        <v>1.5331964672063252</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
         <v>15</v>
       </c>
@@ -902,8 +985,20 @@
         <f t="shared" si="2"/>
         <v>1.0178462373617425</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M11">
+        <f t="shared" si="3"/>
+        <v>1.6690604161555789</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="4"/>
+        <v>1.5863955593577781</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="5"/>
+        <v>1.0521086032485278</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
         <v>16</v>
       </c>
@@ -937,8 +1032,20 @@
         <f t="shared" si="2"/>
         <v>0.89283333333333437</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M12">
+        <f t="shared" si="3"/>
+        <v>1.1304310775111697</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="4"/>
+        <v>1.1454545454545453</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="5"/>
+        <v>0.98688427401768797</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
         <v>17</v>
       </c>
@@ -972,8 +1079,20 @@
         <f t="shared" si="2"/>
         <v>0.29008463033530762</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M13">
+        <f t="shared" si="3"/>
+        <v>1.258916253466104</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="4"/>
+        <v>1.6630441400304412</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="5"/>
+        <v>0.75699509301242007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
         <v>18</v>
       </c>
@@ -1007,8 +1126,20 @@
         <f t="shared" si="2"/>
         <v>0.13355450316981965</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M14">
+        <f t="shared" si="3"/>
+        <v>1.1350329452732921</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="4"/>
+        <v>2.6253138505865401</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="5"/>
+        <v>0.43234181125418825</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
         <v>19</v>
       </c>
@@ -1042,9 +1173,20 @@
         <f t="shared" si="2"/>
         <v>-0.20394215530903342</v>
       </c>
-      <c r="N15" s="4"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M15">
+        <f t="shared" si="3"/>
+        <v>0.92770492091079859</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="4"/>
+        <v>1.3234031648407971</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="5"/>
+        <v>0.70099947284197384</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
         <v>20</v>
       </c>
@@ -1078,8 +1220,20 @@
         <f t="shared" si="2"/>
         <v>0.46123601529828029</v>
       </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M16">
+        <f t="shared" si="3"/>
+        <v>1.0860731461655961</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="4"/>
+        <v>1.148831246209663</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="5"/>
+        <v>0.94537222046220926</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
         <v>21</v>
       </c>
@@ -1113,8 +1267,20 @@
         <f t="shared" si="2"/>
         <v>0.7352499999999994</v>
       </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M17">
+        <f t="shared" si="3"/>
+        <v>1.0666621333695996</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="4"/>
+        <v>1.0750004687529295</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="5"/>
+        <v>0.99224341232799373</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" s="4" t="s">
         <v>22</v>
       </c>
@@ -1148,8 +1314,20 @@
         <f t="shared" si="2"/>
         <v>0.13142331449599143</v>
       </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M18">
+        <f t="shared" si="3"/>
+        <v>1.0625</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="4"/>
+        <v>1.3365548355706924</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="5"/>
+        <v>0.79495428973277071</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="4" t="s">
         <v>26</v>
       </c>
@@ -1183,8 +1361,20 @@
         <f t="shared" si="2"/>
         <v>0.70591347461982634</v>
       </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M19">
+        <f t="shared" si="3"/>
+        <v>1.506848571676652</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="4"/>
+        <v>1.6529311034016494</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="5"/>
+        <v>0.91162212906250784</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="4" t="s">
         <v>23</v>
       </c>
@@ -1218,8 +1408,20 @@
         <f t="shared" si="2"/>
         <v>6.1846458499360053E-2</v>
       </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M20">
+        <f t="shared" si="3"/>
+        <v>1.0320613936252785</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="4"/>
+        <v>1.6488582811343149</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="5"/>
+        <v>0.6259248629392713</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
         <v>24</v>
       </c>
@@ -1253,8 +1455,20 @@
         <f t="shared" si="2"/>
         <v>9.1928825874429326E-2</v>
       </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M21">
+        <f t="shared" si="3"/>
+        <v>1.0227338802580297</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="4"/>
+        <v>1.2707610344976137</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="5"/>
+        <v>0.80481998778185726</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B22" s="4" t="s">
         <v>25</v>
       </c>
@@ -1288,8 +1502,20 @@
         <f t="shared" si="2"/>
         <v>0.48078831375625897</v>
       </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M22">
+        <f t="shared" si="3"/>
+        <v>1.0865080782118728</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="4"/>
+        <v>1.1673806148581052</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="5"/>
+        <v>0.93072307727496195</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B23" s="4" t="s">
         <v>27</v>
       </c>
@@ -1323,8 +1549,20 @@
         <f t="shared" si="2"/>
         <v>1.4086586866539903</v>
       </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M23">
+        <f t="shared" si="3"/>
+        <v>1.0865096595124901</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="4"/>
+        <v>1.054026774651718</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="5"/>
+        <v>1.03081789347477</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B24" s="4" t="s">
         <v>28</v>
       </c>
@@ -1358,8 +1596,20 @@
         <f t="shared" si="2"/>
         <v>2.6732597431854015</v>
       </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M24">
+        <f t="shared" si="3"/>
+        <v>1.2852548076923076</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="4"/>
+        <v>1.0976389799267103</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="5"/>
+        <v>1.1709267174331988</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B25" s="4" t="s">
         <v>29</v>
       </c>
@@ -1393,8 +1643,20 @@
         <f t="shared" si="2"/>
         <v>0.40665434380776344</v>
       </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M25">
+        <f t="shared" si="3"/>
+        <v>1.2195118057440253</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="4"/>
+        <v>1.4025297619047619</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="5"/>
+        <v>0.86950868271616444</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B26" s="4" t="s">
         <v>30</v>
       </c>
@@ -1428,8 +1690,20 @@
         <f t="shared" si="2"/>
         <v>0.24983817948750472</v>
       </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M26">
+        <f t="shared" si="3"/>
+        <v>1.0668804848962563</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="4"/>
+        <v>1.2734915461326726</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="5"/>
+        <v>0.8377601627086958</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B27" s="4" t="s">
         <v>31</v>
       </c>
@@ -1463,8 +1737,20 @@
         <f t="shared" si="2"/>
         <v>0.52819486152819484</v>
       </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M27">
+        <f t="shared" si="3"/>
+        <v>1.3241593971413359</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="4"/>
+        <v>1.7629966564266195</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="5"/>
+        <v>0.75108446310116461</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B28" s="4" t="s">
         <v>32</v>
       </c>
@@ -1498,8 +1784,20 @@
         <f t="shared" si="2"/>
         <v>-2.6336356961844661E-2</v>
       </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M28">
+        <f t="shared" si="3"/>
+        <v>0.99547150140904739</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="4"/>
+        <v>1.1881226497478212</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="5"/>
+        <v>0.83785247391785356</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B29" s="4" t="s">
         <v>33</v>
       </c>
@@ -1533,8 +1831,20 @@
         <f t="shared" si="2"/>
         <v>-2.3245702053648364E-3</v>
       </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M29">
+        <f t="shared" si="3"/>
+        <v>0.99909756667618876</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="4"/>
+        <v>1.3566652550207872</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="5"/>
+        <v>0.73643631911313323</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B30" s="4" t="s">
         <v>43</v>
       </c>
@@ -1568,8 +1878,20 @@
         <f t="shared" si="2"/>
         <v>-5.0107812499999973</v>
       </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M30">
+        <f t="shared" si="3"/>
+        <v>1.1203104835079085</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="4"/>
+        <v>0.97324414715719065</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="5"/>
+        <v>1.1511093971438648</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B31" s="4" t="s">
         <v>44</v>
       </c>
@@ -1603,8 +1925,20 @@
         <f t="shared" si="2"/>
         <v>-9.6293949952486084</v>
       </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M31">
+        <f t="shared" si="3"/>
+        <v>1.1677704194260485</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="4"/>
+        <v>0.97273488846090717</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="5"/>
+        <v>1.200502247096054</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B32" s="4" t="s">
         <v>45</v>
       </c>
@@ -1638,8 +1972,20 @@
         <f t="shared" si="2"/>
         <v>10.144927536232011</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32">
+        <f t="shared" si="3"/>
+        <v>0.96087560398286354</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="4"/>
+        <v>0.99584855030173225</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="5"/>
+        <v>0.96488125999854868</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B33" s="4" t="s">
         <v>45</v>
       </c>
@@ -1673,8 +2019,20 @@
         <f t="shared" si="2"/>
         <v>-27.865702479338314</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33">
+        <f t="shared" si="3"/>
+        <v>0.91773586056512002</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="4"/>
+        <v>1.0030128544305768</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="5"/>
+        <v>0.91497916154437564</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B34" s="4" t="s">
         <v>46</v>
       </c>
@@ -1708,8 +2066,20 @@
         <f t="shared" si="2"/>
         <v>0.43577480896189907</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34">
+        <f t="shared" si="3"/>
+        <v>0.97888445010906622</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="4"/>
+        <v>0.95153785498892818</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="5"/>
+        <v>1.0287393664653059</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B35" s="4" t="s">
         <v>46</v>
       </c>
@@ -1743,8 +2113,20 @@
         <f t="shared" si="2"/>
         <v>0.66907114107992327</v>
       </c>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35">
+        <f t="shared" si="3"/>
+        <v>0.9666170268811175</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="4"/>
+        <v>0.95196366202063476</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="5"/>
+        <v>1.0153927775240701</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B36" s="4" t="s">
         <v>47</v>
       </c>
@@ -1778,8 +2160,20 @@
         <f t="shared" si="2"/>
         <v>0.90940723250900879</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M36">
+        <f t="shared" si="3"/>
+        <v>0.93970180490839506</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="4"/>
+        <v>0.94250541222197615</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="5"/>
+        <v>0.99702536741197956</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="4" t="s">
         <v>47</v>
       </c>
@@ -1813,8 +2207,20 @@
         <f t="shared" si="2"/>
         <v>1.433908839779005</v>
       </c>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M37">
+        <f t="shared" si="3"/>
+        <v>0.91090791286027517</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="4"/>
+        <v>0.94797355561943086</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="5"/>
+        <v>0.96090013003059349</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B38" s="4" t="s">
         <v>48</v>
       </c>
@@ -1837,19 +2243,31 @@
         <v>30.070799999999998</v>
       </c>
       <c r="J38">
-        <f t="shared" ref="J38:J68" si="3">F38-G38</f>
+        <f t="shared" ref="J38:J68" si="6">F38-G38</f>
         <v>-0.18029999999999902</v>
       </c>
       <c r="K38">
-        <f t="shared" ref="K38:K68" si="4">H38-I38</f>
+        <f t="shared" ref="K38:K68" si="7">H38-I38</f>
         <v>-0.44249999999999901</v>
       </c>
       <c r="L38">
-        <f t="shared" ref="L38:L69" si="5">J38/K38</f>
+        <f t="shared" ref="L38:L68" si="8">J38/K38</f>
         <v>0.40745762711864275</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38">
+        <f t="shared" si="3"/>
+        <v>0.99271877006578557</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="4"/>
+        <v>0.98528472804182132</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="5"/>
+        <v>1.0075450697776864</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B39" s="4" t="s">
         <v>49</v>
       </c>
@@ -1872,19 +2290,31 @@
         <v>24.877700000000001</v>
       </c>
       <c r="J39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-0.96189999999999998</v>
       </c>
       <c r="K39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-7.4819999999999993</v>
       </c>
       <c r="L39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.1285618818497728</v>
       </c>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39">
+        <f t="shared" si="3"/>
+        <v>0.94480910687031661</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="4"/>
+        <v>0.69924872476153344</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="5"/>
+        <v>1.3511774471845155</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B40" s="4" t="s">
         <v>42</v>
       </c>
@@ -1907,19 +2337,31 @@
         <v>137</v>
       </c>
       <c r="J40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-8.178600000000003</v>
       </c>
       <c r="K40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>28.933300000000003</v>
       </c>
       <c r="L40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-0.28267083257008369</v>
       </c>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40">
+        <f t="shared" si="3"/>
+        <v>0.89157163198044243</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="4"/>
+        <v>1.2111919708029197</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="5"/>
+        <v>0.7361109167437796</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B41" s="4" t="s">
         <v>34</v>
       </c>
@@ -1942,19 +2384,31 @@
         <v>172.6129</v>
       </c>
       <c r="J41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4.1111999999999966</v>
       </c>
       <c r="K41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-1.9569999999999936</v>
       </c>
       <c r="L41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-2.1007664793050638</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41">
+        <f t="shared" si="3"/>
+        <v>1.023868922966523</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="4"/>
+        <v>0.98866249278008778</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="5"/>
+        <v>1.0356101606397912</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B42" s="4" t="s">
         <v>35</v>
       </c>
@@ -1977,19 +2431,31 @@
         <v>159.48650000000001</v>
       </c>
       <c r="J42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-5.0166999999999859</v>
       </c>
       <c r="K42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.9729999999999848</v>
       </c>
       <c r="L42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-1.6874201143626006</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42">
+        <f t="shared" si="3"/>
+        <v>0.97000478325859496</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="4"/>
+        <v>1.018641076203942</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="5"/>
+        <v>0.95225374856608513</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B43" s="4" t="s">
         <v>36</v>
       </c>
@@ -2012,19 +2478,31 @@
         <v>135.73330000000001</v>
       </c>
       <c r="J43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-7.8636000000000053</v>
       </c>
       <c r="K43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>22.533399999999972</v>
       </c>
       <c r="L43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-0.3489752988896489</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43">
+        <f t="shared" si="3"/>
+        <v>0.86367277026722455</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="4"/>
+        <v>1.1660123197476224</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="5"/>
+        <v>0.74070638503559061</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B44" s="4" t="s">
         <v>37</v>
       </c>
@@ -2047,19 +2525,31 @@
         <v>129.4444</v>
       </c>
       <c r="J44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-9.039999999999992</v>
       </c>
       <c r="K44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-11.361100000000008</v>
       </c>
       <c r="L44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.7956975997042528</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44">
+        <f t="shared" si="3"/>
+        <v>0.85927770859277719</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="4"/>
+        <v>0.91223181535856313</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="5"/>
+        <v>0.94195104152887743</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B45" s="4" t="s">
         <v>38</v>
       </c>
@@ -2082,19 +2572,31 @@
         <v>159.58330000000001</v>
       </c>
       <c r="J45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-12.839299999999994</v>
       </c>
       <c r="K45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-4.25</v>
       </c>
       <c r="L45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3.021011764705881</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45">
+        <f t="shared" si="3"/>
+        <v>0.90741686172199609</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="4"/>
+        <v>0.97336814065130872</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="5"/>
+        <v>0.93224425972563396</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B46" s="4" t="s">
         <v>39</v>
       </c>
@@ -2117,19 +2619,31 @@
         <v>216.09520000000001</v>
       </c>
       <c r="J46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-8.9473999999999876</v>
       </c>
       <c r="K46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-4</v>
       </c>
       <c r="L46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.2368499999999969</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46">
+        <f t="shared" si="3"/>
+        <v>0.95620798783060346</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="4"/>
+        <v>0.98148963975136883</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="5"/>
+        <v>0.9742415498882192</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B47" s="4" t="s">
         <v>40</v>
       </c>
@@ -2152,19 +2666,31 @@
         <v>145.30160000000001</v>
       </c>
       <c r="J47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-2.205900000000014</v>
       </c>
       <c r="K47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-0.98359999999999559</v>
       </c>
       <c r="L47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.2426799511996989</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47">
+        <f t="shared" si="3"/>
+        <v>0.98523755826443093</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="4"/>
+        <v>0.99323063200955808</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="5"/>
+        <v>0.9919524494235995</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B48" s="4" t="s">
         <v>41</v>
       </c>
@@ -2187,19 +2713,31 @@
         <v>167.78819999999999</v>
       </c>
       <c r="J48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.62000000000000455</v>
       </c>
       <c r="K48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.22360000000000468</v>
       </c>
       <c r="L48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.7728085867620376</v>
       </c>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M48">
+        <f t="shared" si="3"/>
+        <v>1.0039530731956134</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="4"/>
+        <v>1.0013326324497194</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="5"/>
+        <v>1.002616953308995</v>
+      </c>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B49" s="4" t="s">
         <v>50</v>
       </c>
@@ -2222,19 +2760,31 @@
         <v>104.65219999999999</v>
       </c>
       <c r="J49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-4.4736999999999938</v>
       </c>
       <c r="K49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-18.130499999999998</v>
       </c>
       <c r="L49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.24674995173878239</v>
       </c>
-    </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M49">
+        <f t="shared" si="3"/>
+        <v>0.95119133211648976</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="4"/>
+        <v>0.82675471705324877</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="5"/>
+        <v>1.1505121319498035</v>
+      </c>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B50" s="4" t="s">
         <v>51</v>
       </c>
@@ -2257,19 +2807,31 @@
         <v>91.896600000000007</v>
       </c>
       <c r="J50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-7.357200000000006</v>
       </c>
       <c r="K50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-16.586300000000008</v>
       </c>
       <c r="L50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.44357089887437234</v>
       </c>
-    </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M50">
+        <f t="shared" si="3"/>
+        <v>0.91953065014667179</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="4"/>
+        <v>0.81951127680458247</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="5"/>
+        <v>1.1220475863762147</v>
+      </c>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B51" s="4" t="s">
         <v>52</v>
       </c>
@@ -2292,19 +2854,31 @@
         <v>65.666700000000006</v>
       </c>
       <c r="J51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-0.19229999999999592</v>
       </c>
       <c r="K51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-16.666700000000006</v>
       </c>
       <c r="L51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.1537976924045902E-2</v>
       </c>
-    </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M51">
+        <f t="shared" si="3"/>
+        <v>0.99700072057571199</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="4"/>
+        <v>0.746192514623089</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="5"/>
+        <v>1.3361172901597778</v>
+      </c>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B52" s="4" t="s">
         <v>53</v>
       </c>
@@ -2327,19 +2901,31 @@
         <v>67.434799999999996</v>
       </c>
       <c r="J52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7.1276000000000082</v>
       </c>
       <c r="K52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-11.043499999999995</v>
       </c>
       <c r="L52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-0.64541132793045786</v>
       </c>
-    </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M52">
+        <f t="shared" si="3"/>
+        <v>1.1205458693641053</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="4"/>
+        <v>0.83623440716069453</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="5"/>
+        <v>1.3399901508104008</v>
+      </c>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B53" s="4" t="s">
         <v>54</v>
       </c>
@@ -2362,19 +2948,31 @@
         <v>100.25</v>
       </c>
       <c r="J53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.7115000000000009</v>
       </c>
       <c r="K53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-20.25</v>
       </c>
       <c r="L53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-0.183283950617284</v>
       </c>
-    </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M53">
+        <f t="shared" si="3"/>
+        <v>1.0354189629587216</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="4"/>
+        <v>0.79800498753117211</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="5"/>
+        <v>1.297509387957648</v>
+      </c>
+    </row>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B54" s="4" t="s">
         <v>55</v>
       </c>
@@ -2397,19 +2995,31 @@
         <v>55.222200000000001</v>
       </c>
       <c r="J54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-0.86359999999999815</v>
       </c>
       <c r="K54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-11.333300000000001</v>
       </c>
       <c r="L54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>7.6200224118306056E-2</v>
       </c>
-    </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M54">
+        <f t="shared" si="3"/>
+        <v>0.98237551020408165</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="4"/>
+        <v>0.79476913270387628</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="5"/>
+        <v>1.2360514139017347</v>
+      </c>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B55" s="4" t="s">
         <v>56</v>
       </c>
@@ -2432,19 +3042,31 @@
         <v>83.714299999999994</v>
       </c>
       <c r="J55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-3.7100000000002353E-2</v>
       </c>
       <c r="K55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-21.714299999999994</v>
       </c>
       <c r="L55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.7085515075320119E-3</v>
       </c>
-    </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M55">
+        <f t="shared" si="3"/>
+        <v>0.99937393793041762</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="4"/>
+        <v>0.74061420808631262</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="5"/>
+        <v>1.3493853169691672</v>
+      </c>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B56" s="4" t="s">
         <v>57</v>
       </c>
@@ -2467,19 +3089,31 @@
         <v>44.333300000000001</v>
       </c>
       <c r="J56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4.4354999999999976</v>
       </c>
       <c r="K56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-10.933300000000003</v>
       </c>
       <c r="L56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-0.4056872124610133</v>
       </c>
-    </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M56">
+        <f t="shared" si="3"/>
+        <v>1.1381913461778119</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="4"/>
+        <v>0.75338402510077074</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="5"/>
+        <v>1.5107718086079278</v>
+      </c>
+    </row>
+    <row r="57" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B57" s="4" t="s">
         <v>58</v>
       </c>
@@ -2502,19 +3136,31 @@
         <v>99.166700000000006</v>
       </c>
       <c r="J57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-2.6111000000000075</v>
       </c>
       <c r="K57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-27.416700000000006</v>
       </c>
       <c r="L57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>9.5237574179241377E-2</v>
       </c>
-    </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M57">
+        <f t="shared" si="3"/>
+        <v>0.97006381402899711</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="4"/>
+        <v>0.72352916856162397</v>
+      </c>
+      <c r="O57">
+        <f t="shared" si="5"/>
+        <v>1.3407390554239631</v>
+      </c>
+    </row>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B58" s="4" t="s">
         <v>59</v>
       </c>
@@ -2537,19 +3183,31 @@
         <v>97.666700000000006</v>
       </c>
       <c r="J58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.4117999999999995</v>
       </c>
       <c r="K58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-24.916700000000006</v>
       </c>
       <c r="L58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-9.6794519338435622E-2</v>
       </c>
-    </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M58">
+        <f t="shared" si="3"/>
+        <v>1.0267278991702804</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="4"/>
+        <v>0.7448802918497297</v>
+      </c>
+      <c r="O58">
+        <f t="shared" si="5"/>
+        <v>1.3783797348439042</v>
+      </c>
+    </row>
+    <row r="59" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B59" s="4" t="s">
         <v>60</v>
       </c>
@@ -2572,19 +3230,31 @@
         <v>97.083299999999994</v>
       </c>
       <c r="J59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.2351999999999919</v>
       </c>
       <c r="K59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-20.25</v>
       </c>
       <c r="L59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-0.11038024691357984</v>
       </c>
-    </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M59">
+        <f t="shared" si="3"/>
+        <v>1.0238085093691682</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="4"/>
+        <v>0.79141623739613298</v>
+      </c>
+      <c r="O59">
+        <f t="shared" si="5"/>
+        <v>1.2936410209849085</v>
+      </c>
+    </row>
+    <row r="60" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B60" s="4" t="s">
         <v>61</v>
       </c>
@@ -2607,19 +3277,31 @@
         <v>83.642899999999997</v>
       </c>
       <c r="J60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5.1212000000000018</v>
       </c>
       <c r="K60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-23.285799999999995</v>
       </c>
       <c r="L60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-0.2199280248048168</v>
       </c>
-    </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M60">
+        <f t="shared" si="3"/>
+        <v>1.1002965104209508</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="4"/>
+        <v>0.72160458329397958</v>
+      </c>
+      <c r="O60">
+        <f t="shared" si="5"/>
+        <v>1.5247914659830994</v>
+      </c>
+    </row>
+    <row r="61" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B61" s="4" t="s">
         <v>62</v>
       </c>
@@ -2642,19 +3324,31 @@
         <v>9.3810000000000002</v>
       </c>
       <c r="J61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.2581000000000024</v>
       </c>
       <c r="K61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.47610000000000063</v>
       </c>
       <c r="L61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.8433102289434951</v>
       </c>
-    </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M61">
+        <f t="shared" si="3"/>
+        <v>1.1866934836920398</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="4"/>
+        <v>1.0507515190278223</v>
+      </c>
+      <c r="O61">
+        <f t="shared" si="5"/>
+        <v>1.1293759392229992</v>
+      </c>
+    </row>
+    <row r="62" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B62" s="4" t="s">
         <v>63</v>
       </c>
@@ -2677,19 +3371,31 @@
         <v>3.0476000000000001</v>
       </c>
       <c r="J62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>8.9713999999999992</v>
       </c>
       <c r="K62">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.4286000000000003</v>
       </c>
       <c r="L62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3.6940624227950249</v>
       </c>
-    </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M62">
+        <f t="shared" si="3"/>
+        <v>2.6185390319147017</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="4"/>
+        <v>1.7968893555584724</v>
+      </c>
+      <c r="O62">
+        <f t="shared" si="5"/>
+        <v>1.4572622536911077</v>
+      </c>
+    </row>
+    <row r="63" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B63" s="4" t="s">
         <v>64</v>
       </c>
@@ -2712,19 +3418,31 @@
         <v>5.8571</v>
       </c>
       <c r="J63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.63640000000000008</v>
       </c>
       <c r="K63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-0.85709999999999997</v>
       </c>
       <c r="L63">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-0.74250379185625959</v>
       </c>
-    </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M63">
+        <f t="shared" si="3"/>
+        <v>1.102947361609887</v>
+      </c>
+      <c r="N63">
+        <f t="shared" si="4"/>
+        <v>0.85366478291304571</v>
+      </c>
+      <c r="O63">
+        <f t="shared" si="5"/>
+        <v>1.2920145983370539</v>
+      </c>
+    </row>
+    <row r="64" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B64" s="4" t="s">
         <v>65</v>
       </c>
@@ -2747,19 +3465,31 @@
         <v>17.444400000000002</v>
       </c>
       <c r="J64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-6.133300000000002</v>
       </c>
       <c r="K64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>7.4444999999999979</v>
       </c>
       <c r="L64">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-0.82386997111961902</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64">
+        <f t="shared" si="3"/>
+        <v>0.7160509259259259</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="4"/>
+        <v>1.4267558643461511</v>
+      </c>
+      <c r="O64">
+        <f t="shared" si="5"/>
+        <v>0.50187347661898363</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B65" s="4" t="s">
         <v>66</v>
       </c>
@@ -2782,19 +3512,31 @@
         <v>3.75</v>
       </c>
       <c r="J65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-1.5</v>
       </c>
       <c r="K65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.75</v>
       </c>
       <c r="L65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-0.8571428571428571</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65">
+        <f t="shared" si="3"/>
+        <v>0.75675807157799146</v>
+      </c>
+      <c r="N65">
+        <f t="shared" si="4"/>
+        <v>1.4666666666666666</v>
+      </c>
+      <c r="O65">
+        <f t="shared" si="5"/>
+        <v>0.5159714124395397</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B66" s="4" t="s">
         <v>67</v>
       </c>
@@ -2817,19 +3559,31 @@
         <v>14.3636</v>
       </c>
       <c r="J66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5.7499999999999982</v>
       </c>
       <c r="K66">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-5.0454000000000008</v>
       </c>
       <c r="L66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-1.1396519602013711</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66">
+        <f t="shared" si="3"/>
+        <v>1.3761685758584821</v>
+      </c>
+      <c r="N66">
+        <f t="shared" si="4"/>
+        <v>0.64873708541034281</v>
+      </c>
+      <c r="O66">
+        <f t="shared" si="5"/>
+        <v>2.1213040025113106</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B67" s="4" t="s">
         <v>68</v>
       </c>
@@ -2852,19 +3606,31 @@
         <v>10.24</v>
       </c>
       <c r="J67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.7647000000000013</v>
       </c>
       <c r="K67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.4000000000000004</v>
       </c>
       <c r="L67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.6890714285714288</v>
       </c>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67">
+        <f t="shared" si="3"/>
+        <v>1.192770899259578</v>
+      </c>
+      <c r="N67">
+        <f t="shared" si="4"/>
+        <v>1.13671875</v>
+      </c>
+      <c r="O67">
+        <f t="shared" si="5"/>
+        <v>1.0493104818228589</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B68" s="4" t="s">
         <v>69</v>
       </c>
@@ -2887,16 +3653,81 @@
         <v>18.1892</v>
       </c>
       <c r="J68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>20.608699999999999</v>
       </c>
       <c r="K68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-4.7568000000000001</v>
       </c>
       <c r="L68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>-4.3324714093508234</v>
+      </c>
+      <c r="M68">
+        <f t="shared" si="3"/>
+        <v>1.8641761504205838</v>
+      </c>
+      <c r="N68">
+        <f t="shared" si="4"/>
+        <v>0.73848217623644796</v>
+      </c>
+      <c r="O68">
+        <f t="shared" si="5"/>
+        <v>2.5243346561470834</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>76</v>
+      </c>
+      <c r="D69">
+        <f>AVERAGE(D6:D68)</f>
+        <v>50.396825396825399</v>
+      </c>
+      <c r="E69">
+        <f>AVERAGE(E6:E68)</f>
+        <v>54</v>
+      </c>
+      <c r="F69">
+        <f>AVERAGE(F6:F68)</f>
+        <v>45.475819047619041</v>
+      </c>
+      <c r="G69">
+        <f t="shared" ref="G69:O69" si="9">AVERAGE(G6:G68)</f>
+        <v>44.77059047619047</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="9"/>
+        <v>49.17441746031745</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="9"/>
+        <v>50.162161904761902</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="9"/>
+        <v>0.70522857142857165</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="9"/>
+        <v>-0.98774444444444454</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="9"/>
+        <v>-5.969078042144832E-2</v>
+      </c>
+      <c r="M69">
+        <f t="shared" si="9"/>
+        <v>1.1619316482002535</v>
+      </c>
+      <c r="N69">
+        <f t="shared" si="9"/>
+        <v>1.1606422121652928</v>
+      </c>
+      <c r="O69">
+        <f t="shared" si="9"/>
+        <v>1.0606693006772168</v>
       </c>
     </row>
     <row r="104" spans="10:28" x14ac:dyDescent="0.2">
